--- a/TAR/Time Allocation Record Spreadsheet.xlsx
+++ b/TAR/Time Allocation Record Spreadsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anmol Kumar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Robocup\TAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60A88D4-0103-48A6-96C6-D98D8A085DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC289837-C9D5-46F4-8CDA-CE9B48C7E32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Time Period 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="87">
   <si>
     <t>#</t>
   </si>
@@ -241,6 +241,60 @@
   </si>
   <si>
     <t>Hours: Team Member 5</t>
+  </si>
+  <si>
+    <t>Raj Abhishek Meru</t>
+  </si>
+  <si>
+    <t>Control Guidance</t>
+  </si>
+  <si>
+    <t>Robot Dynamics and Motion</t>
+  </si>
+  <si>
+    <t>Pitch Simulation</t>
+  </si>
+  <si>
+    <t>Ball Dynamics</t>
+  </si>
+  <si>
+    <t>Ball Physics and Simulation on Pitch</t>
+  </si>
+  <si>
+    <t>Integration Research</t>
+  </si>
+  <si>
+    <t>Stateflow and Integration</t>
+  </si>
+  <si>
+    <t>Environment Visualization</t>
+  </si>
+  <si>
+    <t>Robot Spawning on Pitch</t>
+  </si>
+  <si>
+    <t>Team meetings</t>
+  </si>
+  <si>
+    <t>Discussions and brainstorming</t>
+  </si>
+  <si>
+    <t>Reporting Period: 01/02/2022 - 15/02/2022</t>
+  </si>
+  <si>
+    <t>Reporting Period: 15/02/2022 - 01/03/2022</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Gantt Chart Preparation</t>
+  </si>
+  <si>
+    <t>Costing</t>
+  </si>
+  <si>
+    <t>First Presentation</t>
   </si>
 </sst>
 </file>
@@ -278,7 +332,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -575,11 +629,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -673,6 +793,84 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1016,10 +1214,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1178,185 +1376,196 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+    <row r="15" spans="1:12" s="45" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="43">
         <v>1</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="71">
+        <v>1</v>
+      </c>
+      <c r="G15" s="71">
+        <v>0</v>
+      </c>
+      <c r="H15" s="71">
+        <v>10</v>
+      </c>
+      <c r="I15" s="71">
+        <v>10</v>
+      </c>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="72">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="45" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="43">
+        <v>2</v>
+      </c>
+      <c r="B16" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="71">
+        <v>1</v>
+      </c>
+      <c r="G16" s="71">
+        <v>2</v>
+      </c>
+      <c r="H16" s="71">
+        <v>0</v>
+      </c>
+      <c r="I16" s="71">
+        <v>0</v>
+      </c>
+      <c r="J16" s="71">
+        <v>10</v>
+      </c>
+      <c r="K16" s="71">
+        <v>10</v>
+      </c>
+      <c r="L16" s="72">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="45" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="43">
+        <v>3</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="71">
+        <v>8</v>
+      </c>
+      <c r="G17" s="71">
+        <v>10</v>
+      </c>
+      <c r="H17" s="71">
+        <v>0</v>
+      </c>
+      <c r="I17" s="71">
+        <v>0</v>
+      </c>
+      <c r="J17" s="71">
+        <v>0</v>
+      </c>
+      <c r="K17" s="71">
+        <v>0</v>
+      </c>
+      <c r="L17" s="72">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
+        <v>1</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E18" s="41">
         <v>44563</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F18" s="11">
         <v>2</v>
       </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11">
-        <v>30</v>
-      </c>
-      <c r="K15" s="11">
-        <v>28</v>
-      </c>
-      <c r="L15" s="23">
-        <f>SUM(F15:K15)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="20">
-        <v>2</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="24">
-        <f>SUM(F16:K16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="20">
-        <v>3</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="42">
-        <v>44563</v>
-      </c>
-      <c r="F17" s="12">
-        <v>2</v>
-      </c>
-      <c r="G17" s="12">
-        <v>28</v>
-      </c>
-      <c r="H17" s="12">
-        <v>26</v>
-      </c>
-      <c r="I17" s="12">
-        <v>0</v>
-      </c>
-      <c r="J17" s="12">
-        <v>0</v>
-      </c>
-      <c r="K17" s="12">
-        <v>0</v>
-      </c>
-      <c r="L17" s="24">
-        <f>SUM(F17:K17)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="20">
-        <v>4</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="24">
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <v>20</v>
+      </c>
+      <c r="K18" s="11">
+        <v>18</v>
+      </c>
+      <c r="L18" s="23">
         <f>SUM(F18:K18)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="20">
-        <v>5</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="42">
-        <v>44563</v>
-      </c>
-      <c r="F19" s="12">
-        <v>12</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0</v>
-      </c>
-      <c r="I19" s="12">
-        <v>30</v>
-      </c>
-      <c r="J19" s="12">
-        <v>0</v>
-      </c>
-      <c r="K19" s="12">
-        <v>0</v>
-      </c>
+      <c r="A19" s="20"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
       <c r="L19" s="24">
         <f>SUM(F19:K19)</f>
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="42" t="s">
-        <v>45</v>
+      <c r="E20" s="42">
+        <v>44563</v>
       </c>
       <c r="F20" s="12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G20" s="12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H20" s="12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I20" s="12">
         <v>0</v>
@@ -1368,109 +1577,149 @@
         <v>0</v>
       </c>
       <c r="L20" s="24">
-        <f t="shared" ref="L20:L29" si="0">SUM(F20:K20)</f>
-        <v>10</v>
+        <f>SUM(F20:K20)</f>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
+        <v>4</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="24">
+        <f>SUM(F21:K21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="20">
+        <v>3</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="42">
+        <v>44563</v>
+      </c>
+      <c r="F22" s="12">
+        <v>8</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12">
+        <v>20</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0</v>
+      </c>
+      <c r="L22" s="24">
+        <f>SUM(F22:K22)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="20">
+        <v>6</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="12">
+        <v>6</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12">
+        <v>0</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0</v>
+      </c>
+      <c r="L23" s="24">
+        <f t="shared" ref="L23:L32" si="0">SUM(F23:K23)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="20">
         <v>7</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B24" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D24" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E24" s="42">
         <v>44563</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F24" s="12">
         <v>4</v>
       </c>
-      <c r="G21" s="12">
-        <v>0</v>
-      </c>
-      <c r="H21" s="12">
-        <v>0</v>
-      </c>
-      <c r="I21" s="12">
-        <v>0</v>
-      </c>
-      <c r="J21" s="12">
-        <v>0</v>
-      </c>
-      <c r="K21" s="12">
-        <v>0</v>
-      </c>
-      <c r="L21" s="24">
+      <c r="G24" s="12">
+        <v>0</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="12">
+        <v>0</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0</v>
+      </c>
+      <c r="L24" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="20">
-        <v>8</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="20">
-        <v>9</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="20">
-        <v>10</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -1489,7 +1738,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -1508,7 +1757,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -1527,7 +1776,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -1544,59 +1793,116 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="21">
-        <v>15</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="20">
+        <v>12</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
       <c r="L29" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="40" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="20">
+        <v>13</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="20">
+        <v>14</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="21">
+        <v>15</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="2">
-        <f>SUM(F15:F29)</f>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="2">
+        <f>SUM(F15:F32)</f>
+        <v>32</v>
+      </c>
+      <c r="G33" s="2">
+        <f>SUM(G15:G32)</f>
+        <v>28</v>
+      </c>
+      <c r="H33" s="2">
+        <f>SUM(H15:H32)</f>
+        <v>26</v>
+      </c>
+      <c r="I33" s="2">
+        <f>SUM(I15:I32)</f>
         <v>30</v>
       </c>
-      <c r="G30" s="2">
-        <f t="shared" ref="G30:K30" si="1">SUM(G15:G29)</f>
+      <c r="J33" s="2">
+        <f>SUM(J15:J32)</f>
+        <v>30</v>
+      </c>
+      <c r="K33" s="2">
+        <f>SUM(K15:K32)</f>
         <v>28</v>
       </c>
-      <c r="H30" s="2">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="I30" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="J30" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="K30" s="2">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="L30" s="22">
-        <f>SUM(L15:L29)</f>
+      <c r="L33" s="22">
+        <f>SUM(L15:L32)</f>
         <v>172</v>
       </c>
     </row>
@@ -1610,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1629,10 +1935,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1820,7 +2126,7 @@
         <v>8</v>
       </c>
       <c r="L15" s="23">
-        <f>SUM(F15:K15)</f>
+        <f t="shared" ref="L15:L20" si="0">SUM(F15:K15)</f>
         <v>32</v>
       </c>
     </row>
@@ -1859,7 +2165,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="24">
-        <f>SUM(F16:K16)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
@@ -1898,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="24">
-        <f>SUM(F17:K17)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -1937,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="24">
-        <f>SUM(F18:K18)</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
@@ -1976,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="24">
-        <f>SUM(F19:K19)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -1987,8 +2293,8 @@
       <c r="B20" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>66</v>
+      <c r="C20" s="54" t="s">
+        <v>80</v>
       </c>
       <c r="D20" s="42">
         <v>44563</v>
@@ -2015,7 +2321,7 @@
         <v>8</v>
       </c>
       <c r="L20" s="24">
-        <f>SUM(F20:K20)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
@@ -2034,7 +2340,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="24">
-        <f>SUM(H21:K21)</f>
+        <f t="shared" ref="L21:L29" si="1">SUM(H21:K21)</f>
         <v>0</v>
       </c>
     </row>
@@ -2053,7 +2359,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="24">
-        <f>SUM(H22:K22)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2072,7 +2378,7 @@
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="24">
-        <f>SUM(H23:K23)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2091,7 +2397,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="24">
-        <f>SUM(H24:K24)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2110,7 +2416,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
       <c r="L25" s="24">
-        <f>SUM(H25:K25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2129,7 +2435,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
       <c r="L26" s="24">
-        <f>SUM(H26:K26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2148,7 +2454,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
       <c r="L27" s="24">
-        <f>SUM(H27:K27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2167,7 +2473,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="12"/>
       <c r="L28" s="24">
-        <f>SUM(H28:K28)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2186,7 +2492,7 @@
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="25">
-        <f>SUM(H29:K29)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2201,11 +2507,11 @@
         <v>29</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" ref="G30:K30" si="0">SUM(G15:G29)</f>
+        <f t="shared" ref="G30:K30" si="2">SUM(G15:G29)</f>
         <v>32</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="I30" s="2">
@@ -2217,7 +2523,7 @@
         <v>32</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="L30" s="22">
@@ -2234,10 +2540,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2248,451 +2554,663 @@
     <col min="4" max="11" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="26" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="44"/>
+      <c r="B1" s="60" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="2" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="46" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="30" t="s">
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="44"/>
+      <c r="B6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="34" t="str">
-        <f>'Time Period 1'!C6</f>
-        <v>Anmol Kumar</v>
-      </c>
-      <c r="D6" s="34" t="str">
-        <f>'Time Period 1'!D6</f>
-        <v>2709898K</v>
-      </c>
-      <c r="E6" s="34" t="str">
-        <f>'Time Period 1'!E6</f>
-        <v>Manager</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="31" t="s">
+      <c r="C6" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="44"/>
+      <c r="B7" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="35" t="str">
-        <f>'Time Period 1'!C7</f>
-        <v>Sarthak Ahuja</v>
-      </c>
-      <c r="D7" s="35" t="str">
-        <f>'Time Period 1'!D7</f>
-        <v>2707209A</v>
-      </c>
-      <c r="E7" s="35" t="str">
-        <f>'Time Period 1'!E7</f>
-        <v>Developer</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
+      <c r="C7" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="44"/>
+      <c r="B8" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="35" t="str">
-        <f>'Time Period 1'!C8</f>
-        <v>Jia Wei Tan</v>
-      </c>
-      <c r="D8" s="35" t="str">
-        <f>'Time Period 1'!D8</f>
-        <v>2705295T</v>
-      </c>
-      <c r="E8" s="35" t="str">
-        <f>'Time Period 1'!E8</f>
-        <v>Developer</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="32" t="s">
+      <c r="C8" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="44"/>
+      <c r="B9" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="35" t="str">
-        <f>'Time Period 1'!C10</f>
-        <v>Yenuo Liu</v>
-      </c>
-      <c r="D9" s="35" t="str">
-        <f>'Time Period 1'!D10</f>
-        <v>2706420L</v>
-      </c>
-      <c r="E9" s="35" t="str">
-        <f>'Time Period 1'!E10</f>
-        <v>Developer</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="33" t="s">
+      <c r="C9" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="44"/>
+      <c r="B10" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="36" t="str">
-        <f>'Time Period 1'!C11</f>
-        <v>Chaoyu Li</v>
-      </c>
-      <c r="D10" s="36" t="str">
-        <f>'Time Period 1'!D11</f>
-        <v>2707728L</v>
-      </c>
-      <c r="E10" s="36" t="str">
-        <f>'Time Period 1'!E11</f>
-        <v>Developer</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C10" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="44"/>
+      <c r="B11" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F14" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G14" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H14" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I14" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J14" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K14" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="56">
         <v>1</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="23">
-        <f t="shared" ref="K14:K28" si="0">SUM(H14:J14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="20">
+      <c r="B15" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="67">
+        <v>44606</v>
+      </c>
+      <c r="E15" s="67">
+        <v>44620</v>
+      </c>
+      <c r="F15" s="48">
+        <v>0</v>
+      </c>
+      <c r="G15" s="48">
+        <v>0</v>
+      </c>
+      <c r="H15" s="48">
+        <v>0</v>
+      </c>
+      <c r="I15" s="48">
+        <v>0</v>
+      </c>
+      <c r="J15" s="48">
+        <v>0</v>
+      </c>
+      <c r="K15" s="68">
+        <v>30</v>
+      </c>
+      <c r="L15" s="59">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="57">
         <v>2</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="20">
+      <c r="B16" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="67">
+        <v>44606</v>
+      </c>
+      <c r="E16" s="67">
+        <v>44620</v>
+      </c>
+      <c r="F16" s="49">
+        <v>25</v>
+      </c>
+      <c r="G16" s="49">
+        <v>15</v>
+      </c>
+      <c r="H16" s="49">
+        <v>0</v>
+      </c>
+      <c r="I16" s="49">
+        <v>0</v>
+      </c>
+      <c r="J16" s="49">
+        <v>0</v>
+      </c>
+      <c r="K16" s="69">
+        <v>0</v>
+      </c>
+      <c r="L16" s="59">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="57">
         <v>3</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="20">
+      <c r="B17" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="67">
+        <v>44606</v>
+      </c>
+      <c r="E17" s="67">
+        <v>44620</v>
+      </c>
+      <c r="F17" s="49">
+        <v>0</v>
+      </c>
+      <c r="G17" s="49">
+        <v>0</v>
+      </c>
+      <c r="H17" s="49">
+        <v>30</v>
+      </c>
+      <c r="I17" s="49">
+        <v>0</v>
+      </c>
+      <c r="J17" s="49">
+        <v>0</v>
+      </c>
+      <c r="K17" s="69">
+        <v>0</v>
+      </c>
+      <c r="L17" s="59">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="57">
         <v>4</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="20">
+      <c r="B18" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="67">
+        <v>44606</v>
+      </c>
+      <c r="E18" s="67">
+        <v>44620</v>
+      </c>
+      <c r="F18" s="49">
+        <v>0</v>
+      </c>
+      <c r="G18" s="49">
+        <v>15</v>
+      </c>
+      <c r="H18" s="49">
+        <v>0</v>
+      </c>
+      <c r="I18" s="49">
+        <v>25</v>
+      </c>
+      <c r="J18" s="49">
+        <v>0</v>
+      </c>
+      <c r="K18" s="69">
+        <v>0</v>
+      </c>
+      <c r="L18" s="59">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="57">
         <v>5</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="20">
+      <c r="B19" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="67">
+        <v>44606</v>
+      </c>
+      <c r="E19" s="67">
+        <v>44620</v>
+      </c>
+      <c r="F19" s="49">
+        <v>0</v>
+      </c>
+      <c r="G19" s="49">
+        <v>0</v>
+      </c>
+      <c r="H19" s="49">
+        <v>0</v>
+      </c>
+      <c r="I19" s="49">
+        <v>0</v>
+      </c>
+      <c r="J19" s="49">
+        <v>30</v>
+      </c>
+      <c r="K19" s="69">
+        <v>0</v>
+      </c>
+      <c r="L19" s="59">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="57">
         <v>6</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="20">
+      <c r="B20" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="67">
+        <v>44606</v>
+      </c>
+      <c r="E20" s="67">
+        <v>44620</v>
+      </c>
+      <c r="F20" s="49">
+        <v>8</v>
+      </c>
+      <c r="G20" s="49">
+        <v>8</v>
+      </c>
+      <c r="H20" s="49">
+        <v>8</v>
+      </c>
+      <c r="I20" s="49">
+        <v>8</v>
+      </c>
+      <c r="J20" s="49">
+        <v>8</v>
+      </c>
+      <c r="K20" s="69">
+        <v>8</v>
+      </c>
+      <c r="L20" s="59">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="57">
         <v>7</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="20">
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="57">
         <v>8</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="20">
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="57">
         <v>9</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="20">
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="57">
         <v>10</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="20">
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="57">
         <v>11</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="20">
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="69"/>
+      <c r="L25" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="57">
         <v>12</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="20">
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="57">
         <v>13</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="20">
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="57">
         <v>14</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="21">
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="58">
         <v>15</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="10" t="s">
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="2">
-        <f>SUM(F14:F28)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
-        <f t="shared" ref="G29:J29" si="1">SUM(G14:G28)</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="22">
-        <f>SUM(K14:K28)</f>
-        <v>0</v>
+      <c r="D30" s="51"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="46">
+        <v>33</v>
+      </c>
+      <c r="G30" s="46">
+        <v>38</v>
+      </c>
+      <c r="H30" s="46">
+        <v>38</v>
+      </c>
+      <c r="I30" s="46">
+        <v>33</v>
+      </c>
+      <c r="J30" s="46">
+        <v>38</v>
+      </c>
+      <c r="K30" s="46">
+        <v>38</v>
+      </c>
+      <c r="L30" s="46">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3796,23 +4314,23 @@
         <v>1</v>
       </c>
       <c r="E14" s="23">
-        <f>'Time Period 1'!F30</f>
+        <f>'Time Period 1'!F33</f>
+        <v>32</v>
+      </c>
+      <c r="F14" s="23">
+        <f>'Time Period 1'!G33</f>
+        <v>28</v>
+      </c>
+      <c r="G14" s="23">
+        <f>'Time Period 1'!H33</f>
+        <v>26</v>
+      </c>
+      <c r="H14" s="23">
+        <f>'Time Period 1'!J33</f>
         <v>30</v>
       </c>
-      <c r="F14" s="23">
-        <f>'Time Period 1'!G30</f>
-        <v>28</v>
-      </c>
-      <c r="G14" s="23">
-        <f>'Time Period 1'!H30</f>
-        <v>26</v>
-      </c>
-      <c r="H14" s="23">
-        <f>'Time Period 1'!J30</f>
-        <v>30</v>
-      </c>
       <c r="I14" s="23">
-        <f>'Time Period 1'!K30</f>
+        <f>'Time Period 1'!K33</f>
         <v>28</v>
       </c>
       <c r="J14" s="23">
@@ -3979,7 +4497,7 @@
       <c r="D21" s="14"/>
       <c r="E21" s="2">
         <f t="shared" ref="E21:J21" si="1">SUM(E14:E20)</f>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="1"/>

--- a/TAR/Time Allocation Record Spreadsheet.xlsx
+++ b/TAR/Time Allocation Record Spreadsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Robocup\TAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarth\Documents\GitHub\Robocup-soccer\TAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC289837-C9D5-46F4-8CDA-CE9B48C7E32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C36AA9-B198-4310-9BED-DDE9C54F83A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Time Period 1" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,19 @@
     <sheet name="Time Period 3" sheetId="3" r:id="rId3"/>
     <sheet name="Time Period 4" sheetId="4" r:id="rId4"/>
     <sheet name="Time Period 5" sheetId="5" r:id="rId5"/>
-    <sheet name="FInal Total" sheetId="6" r:id="rId6"/>
+    <sheet name="Time Period 6" sheetId="7" r:id="rId6"/>
+    <sheet name="FInal Total" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="91">
   <si>
     <t>#</t>
   </si>
@@ -295,13 +299,25 @@
   </si>
   <si>
     <t>First Presentation</t>
+  </si>
+  <si>
+    <t>2/14/2022</t>
+  </si>
+  <si>
+    <t>2/28/2022</t>
+  </si>
+  <si>
+    <t>Meetings</t>
+  </si>
+  <si>
+    <t>Discussions and reviews</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +335,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -699,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -858,9 +881,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -871,6 +891,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1214,18 +1267,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="44.88671875" customWidth="1"/>
-    <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="12" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -1354,22 +1411,22 @@
       <c r="E14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="73" t="s">
         <v>26</v>
       </c>
       <c r="L14" s="2" t="s">
@@ -1380,33 +1437,37 @@
       <c r="A15" s="43">
         <v>1</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="71">
+      <c r="F15" s="70">
         <v>1</v>
       </c>
-      <c r="G15" s="71">
-        <v>0</v>
-      </c>
-      <c r="H15" s="71">
+      <c r="G15" s="70">
+        <v>0</v>
+      </c>
+      <c r="H15" s="70">
         <v>10</v>
       </c>
-      <c r="I15" s="71">
+      <c r="I15" s="70">
         <v>10</v>
       </c>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="72">
+      <c r="J15" s="70">
+        <v>0</v>
+      </c>
+      <c r="K15" s="70">
+        <v>0</v>
+      </c>
+      <c r="L15" s="71">
         <v>21</v>
       </c>
     </row>
@@ -1414,37 +1475,37 @@
       <c r="A16" s="43">
         <v>2</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="71" t="s">
+      <c r="E16" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="71">
+      <c r="F16" s="70">
         <v>1</v>
       </c>
-      <c r="G16" s="71">
+      <c r="G16" s="70">
         <v>2</v>
       </c>
-      <c r="H16" s="71">
-        <v>0</v>
-      </c>
-      <c r="I16" s="71">
-        <v>0</v>
-      </c>
-      <c r="J16" s="71">
+      <c r="H16" s="70">
+        <v>0</v>
+      </c>
+      <c r="I16" s="70">
+        <v>0</v>
+      </c>
+      <c r="J16" s="70">
         <v>10</v>
       </c>
-      <c r="K16" s="71">
+      <c r="K16" s="70">
         <v>10</v>
       </c>
-      <c r="L16" s="72">
+      <c r="L16" s="71">
         <v>21</v>
       </c>
     </row>
@@ -1452,43 +1513,43 @@
       <c r="A17" s="43">
         <v>3</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="71">
+      <c r="F17" s="70">
         <v>8</v>
       </c>
-      <c r="G17" s="71">
+      <c r="G17" s="70">
         <v>10</v>
       </c>
-      <c r="H17" s="71">
-        <v>0</v>
-      </c>
-      <c r="I17" s="71">
-        <v>0</v>
-      </c>
-      <c r="J17" s="71">
-        <v>0</v>
-      </c>
-      <c r="K17" s="71">
-        <v>0</v>
-      </c>
-      <c r="L17" s="72">
+      <c r="H17" s="70">
+        <v>0</v>
+      </c>
+      <c r="I17" s="70">
+        <v>0</v>
+      </c>
+      <c r="J17" s="70">
+        <v>0</v>
+      </c>
+      <c r="K17" s="70">
+        <v>0</v>
+      </c>
+      <c r="L17" s="71">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>43</v>
@@ -1526,49 +1587,71 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="A19" s="20">
+        <v>5</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="42">
+        <v>44563</v>
+      </c>
+      <c r="F19" s="12">
+        <v>2</v>
+      </c>
+      <c r="G19" s="12">
+        <v>16</v>
+      </c>
+      <c r="H19" s="12">
+        <v>16</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
       <c r="L19" s="24">
         <f>SUM(F19:K19)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E20" s="42">
         <v>44563</v>
       </c>
       <c r="F20" s="12">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G20" s="12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H20" s="12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I20" s="12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J20" s="12">
         <v>0</v>
@@ -1578,37 +1661,57 @@
       </c>
       <c r="L20" s="24">
         <f>SUM(F20:K20)</f>
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
-        <v>4</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+        <v>7</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="12">
+        <v>6</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
       <c r="L21" s="24">
-        <f>SUM(F21:K21)</f>
-        <v>0</v>
+        <f t="shared" ref="L21:L24" si="0">SUM(F21:K21)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>45</v>
@@ -1617,7 +1720,7 @@
         <v>44563</v>
       </c>
       <c r="F22" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G22" s="12">
         <v>0</v>
@@ -1626,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J22" s="12">
         <v>0</v>
@@ -1635,275 +1738,99 @@
         <v>0</v>
       </c>
       <c r="L22" s="24">
-        <f>SUM(F22:K22)</f>
-        <v>28</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>45</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G23" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K23" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23" s="24">
-        <f t="shared" ref="L23:L32" si="0">SUM(F23:K23)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20">
-        <v>7</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="42">
-        <v>44563</v>
-      </c>
-      <c r="F24" s="12">
-        <v>4</v>
-      </c>
-      <c r="G24" s="12">
-        <v>0</v>
-      </c>
-      <c r="H24" s="12">
-        <v>0</v>
-      </c>
-      <c r="I24" s="12">
-        <v>0</v>
-      </c>
-      <c r="J24" s="12">
-        <v>0</v>
-      </c>
-      <c r="K24" s="12">
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
       <c r="L24" s="24">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="20">
-        <v>9</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="20">
-        <v>10</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="20">
-        <v>11</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="20">
-        <v>12</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="20">
-        <v>13</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="20">
-        <v>14</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="21">
-        <v>15</v>
-      </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="2">
-        <f>SUM(F15:F32)</f>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="2">
+        <f t="shared" ref="F25:L25" si="1">SUM(F15:F24)</f>
+        <v>34</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="G33" s="2">
-        <f>SUM(G15:G32)</f>
-        <v>28</v>
-      </c>
-      <c r="H33" s="2">
-        <f>SUM(H15:H32)</f>
-        <v>26</v>
-      </c>
-      <c r="I33" s="2">
-        <f>SUM(I15:I32)</f>
+      <c r="J25" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="J33" s="2">
-        <f>SUM(J15:J32)</f>
-        <v>30</v>
-      </c>
-      <c r="K33" s="2">
-        <f>SUM(K15:K32)</f>
-        <v>28</v>
-      </c>
-      <c r="L33" s="22">
-        <f>SUM(L15:L32)</f>
-        <v>172</v>
+      <c r="L25" s="22">
+        <f t="shared" si="1"/>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1916,16 +1843,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="44.88671875" customWidth="1"/>
-    <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="12" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36.5546875" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -2069,23 +2003,23 @@
       <c r="E14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>22</v>
+      <c r="K14" s="73" t="s">
+        <v>26</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>7</v>
@@ -2120,14 +2054,14 @@
         <v>0</v>
       </c>
       <c r="J15" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K15" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L15" s="23">
         <f t="shared" ref="L15:L20" si="0">SUM(F15:K15)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2231,10 +2165,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="12">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I18" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J18" s="12">
         <v>0</v>
@@ -2512,23 +2446,23 @@
       </c>
       <c r="H30" s="2">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I30" s="2">
         <f>SUM(I15:I29)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J30" s="2">
         <f>SUM(J15:J29)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L30" s="22">
         <f>SUM(L15:L29)</f>
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -2542,16 +2476,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="44.88671875" customWidth="1"/>
-    <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="11" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -2771,253 +2713,253 @@
       <c r="E14" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="46" t="s">
+      <c r="F14" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="46" t="s">
+      <c r="I14" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="46" t="s">
+      <c r="J14" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="46" t="s">
+      <c r="K14" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="46" t="s">
+      <c r="L14" s="73" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="56">
+      <c r="A15" s="74">
         <v>1</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="67">
-        <v>44606</v>
-      </c>
-      <c r="E15" s="67">
-        <v>44620</v>
-      </c>
-      <c r="F15" s="48">
-        <v>0</v>
-      </c>
-      <c r="G15" s="48">
-        <v>0</v>
-      </c>
-      <c r="H15" s="48">
-        <v>0</v>
-      </c>
-      <c r="I15" s="48">
-        <v>0</v>
-      </c>
-      <c r="J15" s="48">
-        <v>0</v>
-      </c>
-      <c r="K15" s="68">
+      <c r="D15" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="77">
+        <v>0</v>
+      </c>
+      <c r="G15" s="77">
+        <v>0</v>
+      </c>
+      <c r="H15" s="77">
+        <v>0</v>
+      </c>
+      <c r="I15" s="77">
+        <v>0</v>
+      </c>
+      <c r="J15" s="77">
+        <v>10</v>
+      </c>
+      <c r="K15" s="78">
+        <v>22</v>
+      </c>
+      <c r="L15" s="79">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="80">
+        <v>2</v>
+      </c>
+      <c r="B16" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="76">
+        <v>25</v>
+      </c>
+      <c r="G16" s="76">
+        <v>17</v>
+      </c>
+      <c r="H16" s="76">
+        <v>0</v>
+      </c>
+      <c r="I16" s="76">
+        <v>0</v>
+      </c>
+      <c r="J16" s="76">
+        <v>0</v>
+      </c>
+      <c r="K16" s="82">
+        <v>0</v>
+      </c>
+      <c r="L16" s="79">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="80">
+        <v>3</v>
+      </c>
+      <c r="B17" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="76">
+        <v>0</v>
+      </c>
+      <c r="G17" s="76">
+        <v>0</v>
+      </c>
+      <c r="H17" s="76">
         <v>30</v>
       </c>
-      <c r="L15" s="59">
+      <c r="I17" s="76">
+        <v>0</v>
+      </c>
+      <c r="J17" s="76">
+        <v>0</v>
+      </c>
+      <c r="K17" s="82">
+        <v>0</v>
+      </c>
+      <c r="L17" s="79">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="57">
-        <v>2</v>
-      </c>
-      <c r="B16" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="67">
-        <v>44606</v>
-      </c>
-      <c r="E16" s="67">
-        <v>44620</v>
-      </c>
-      <c r="F16" s="49">
-        <v>25</v>
-      </c>
-      <c r="G16" s="49">
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="80">
+        <v>4</v>
+      </c>
+      <c r="B18" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="76">
+        <v>0</v>
+      </c>
+      <c r="G18" s="76">
         <v>15</v>
       </c>
-      <c r="H16" s="49">
-        <v>0</v>
-      </c>
-      <c r="I16" s="49">
-        <v>0</v>
-      </c>
-      <c r="J16" s="49">
-        <v>0</v>
-      </c>
-      <c r="K16" s="69">
-        <v>0</v>
-      </c>
-      <c r="L16" s="59">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="57">
-        <v>3</v>
-      </c>
-      <c r="B17" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="67">
-        <v>44606</v>
-      </c>
-      <c r="E17" s="67">
-        <v>44620</v>
-      </c>
-      <c r="F17" s="49">
-        <v>0</v>
-      </c>
-      <c r="G17" s="49">
-        <v>0</v>
-      </c>
-      <c r="H17" s="49">
-        <v>30</v>
-      </c>
-      <c r="I17" s="49">
-        <v>0</v>
-      </c>
-      <c r="J17" s="49">
-        <v>0</v>
-      </c>
-      <c r="K17" s="69">
-        <v>0</v>
-      </c>
-      <c r="L17" s="59">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="57">
-        <v>4</v>
-      </c>
-      <c r="B18" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="67">
-        <v>44606</v>
-      </c>
-      <c r="E18" s="67">
-        <v>44620</v>
-      </c>
-      <c r="F18" s="49">
-        <v>0</v>
-      </c>
-      <c r="G18" s="49">
-        <v>15</v>
-      </c>
-      <c r="H18" s="49">
-        <v>0</v>
-      </c>
-      <c r="I18" s="49">
-        <v>25</v>
-      </c>
-      <c r="J18" s="49">
-        <v>0</v>
-      </c>
-      <c r="K18" s="69">
-        <v>0</v>
-      </c>
-      <c r="L18" s="59">
-        <v>40</v>
+      <c r="H18" s="76">
+        <v>0</v>
+      </c>
+      <c r="I18" s="76">
+        <v>27</v>
+      </c>
+      <c r="J18" s="76">
+        <v>0</v>
+      </c>
+      <c r="K18" s="82">
+        <v>0</v>
+      </c>
+      <c r="L18" s="79">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="57">
+      <c r="A19" s="80">
         <v>5</v>
       </c>
-      <c r="B19" s="54" t="s">
+      <c r="B19" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="67">
-        <v>44606</v>
-      </c>
-      <c r="E19" s="67">
-        <v>44620</v>
-      </c>
-      <c r="F19" s="49">
-        <v>0</v>
-      </c>
-      <c r="G19" s="49">
-        <v>0</v>
-      </c>
-      <c r="H19" s="49">
-        <v>0</v>
-      </c>
-      <c r="I19" s="49">
-        <v>0</v>
-      </c>
-      <c r="J19" s="49">
-        <v>30</v>
-      </c>
-      <c r="K19" s="69">
-        <v>0</v>
-      </c>
-      <c r="L19" s="59">
-        <v>30</v>
+      <c r="D19" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="76">
+        <v>0</v>
+      </c>
+      <c r="G19" s="76">
+        <v>0</v>
+      </c>
+      <c r="H19" s="76">
+        <v>0</v>
+      </c>
+      <c r="I19" s="76">
+        <v>0</v>
+      </c>
+      <c r="J19" s="76">
+        <v>24</v>
+      </c>
+      <c r="K19" s="82">
+        <v>10</v>
+      </c>
+      <c r="L19" s="79">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="57">
+      <c r="A20" s="80">
         <v>6</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="67">
-        <v>44606</v>
-      </c>
-      <c r="E20" s="67">
-        <v>44620</v>
-      </c>
-      <c r="F20" s="49">
+      <c r="D20" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="76">
         <v>8</v>
       </c>
-      <c r="G20" s="49">
+      <c r="G20" s="76">
         <v>8</v>
       </c>
-      <c r="H20" s="49">
+      <c r="H20" s="76">
         <v>8</v>
       </c>
-      <c r="I20" s="49">
+      <c r="I20" s="76">
         <v>8</v>
       </c>
-      <c r="J20" s="49">
+      <c r="J20" s="76">
         <v>8</v>
       </c>
-      <c r="K20" s="69">
+      <c r="K20" s="82">
         <v>8</v>
       </c>
-      <c r="L20" s="59">
+      <c r="L20" s="79">
         <v>48</v>
       </c>
     </row>
@@ -3034,7 +2976,7 @@
       <c r="H21" s="49"/>
       <c r="I21" s="49"/>
       <c r="J21" s="49"/>
-      <c r="K21" s="69"/>
+      <c r="K21" s="68"/>
       <c r="L21" s="59">
         <v>0</v>
       </c>
@@ -3052,7 +2994,7 @@
       <c r="H22" s="49"/>
       <c r="I22" s="49"/>
       <c r="J22" s="49"/>
-      <c r="K22" s="69"/>
+      <c r="K22" s="68"/>
       <c r="L22" s="59">
         <v>0</v>
       </c>
@@ -3070,7 +3012,7 @@
       <c r="H23" s="49"/>
       <c r="I23" s="49"/>
       <c r="J23" s="49"/>
-      <c r="K23" s="69"/>
+      <c r="K23" s="68"/>
       <c r="L23" s="59">
         <v>0</v>
       </c>
@@ -3088,7 +3030,7 @@
       <c r="H24" s="49"/>
       <c r="I24" s="49"/>
       <c r="J24" s="49"/>
-      <c r="K24" s="69"/>
+      <c r="K24" s="68"/>
       <c r="L24" s="59">
         <v>0</v>
       </c>
@@ -3106,7 +3048,7 @@
       <c r="H25" s="49"/>
       <c r="I25" s="49"/>
       <c r="J25" s="49"/>
-      <c r="K25" s="69"/>
+      <c r="K25" s="68"/>
       <c r="L25" s="59">
         <v>0</v>
       </c>
@@ -3124,7 +3066,7 @@
       <c r="H26" s="49"/>
       <c r="I26" s="49"/>
       <c r="J26" s="49"/>
-      <c r="K26" s="69"/>
+      <c r="K26" s="68"/>
       <c r="L26" s="59">
         <v>0</v>
       </c>
@@ -3142,7 +3084,7 @@
       <c r="H27" s="49"/>
       <c r="I27" s="49"/>
       <c r="J27" s="49"/>
-      <c r="K27" s="69"/>
+      <c r="K27" s="68"/>
       <c r="L27" s="59">
         <v>0</v>
       </c>
@@ -3160,7 +3102,7 @@
       <c r="H28" s="49"/>
       <c r="I28" s="49"/>
       <c r="J28" s="49"/>
-      <c r="K28" s="69"/>
+      <c r="K28" s="68"/>
       <c r="L28" s="59">
         <v>0</v>
       </c>
@@ -3178,7 +3120,7 @@
       <c r="H29" s="50"/>
       <c r="I29" s="50"/>
       <c r="J29" s="50"/>
-      <c r="K29" s="70"/>
+      <c r="K29" s="69"/>
       <c r="L29" s="59">
         <v>0</v>
       </c>
@@ -3195,22 +3137,22 @@
         <v>33</v>
       </c>
       <c r="G30" s="46">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H30" s="46">
         <v>38</v>
       </c>
       <c r="I30" s="46">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J30" s="46">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K30" s="46">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L30" s="46">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3222,7 +3164,475 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="44.88671875" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="4" max="11" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="34" t="str">
+        <f>'Time Period 1'!C6</f>
+        <v>Anmol Kumar</v>
+      </c>
+      <c r="D6" s="34" t="str">
+        <f>'Time Period 1'!D6</f>
+        <v>2709898K</v>
+      </c>
+      <c r="E6" s="34" t="str">
+        <f>'Time Period 1'!E6</f>
+        <v>Manager</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="35" t="str">
+        <f>'Time Period 1'!C7</f>
+        <v>Sarthak Ahuja</v>
+      </c>
+      <c r="D7" s="35" t="str">
+        <f>'Time Period 1'!D7</f>
+        <v>2707209A</v>
+      </c>
+      <c r="E7" s="35" t="str">
+        <f>'Time Period 1'!E7</f>
+        <v>Developer</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="35" t="str">
+        <f>'Time Period 1'!C8</f>
+        <v>Jia Wei Tan</v>
+      </c>
+      <c r="D8" s="35" t="str">
+        <f>'Time Period 1'!D8</f>
+        <v>2705295T</v>
+      </c>
+      <c r="E8" s="35" t="str">
+        <f>'Time Period 1'!E8</f>
+        <v>Developer</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="35" t="str">
+        <f>'Time Period 1'!C10</f>
+        <v>Yenuo Liu</v>
+      </c>
+      <c r="D9" s="35" t="str">
+        <f>'Time Period 1'!D10</f>
+        <v>2706420L</v>
+      </c>
+      <c r="E9" s="35" t="str">
+        <f>'Time Period 1'!E10</f>
+        <v>Developer</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="36" t="str">
+        <f>'Time Period 1'!C11</f>
+        <v>Chaoyu Li</v>
+      </c>
+      <c r="D10" s="36" t="str">
+        <f>'Time Period 1'!D11</f>
+        <v>2707728L</v>
+      </c>
+      <c r="E10" s="36" t="str">
+        <f>'Time Period 1'!E11</f>
+        <v>Developer</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
+        <v>1</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="23">
+        <f t="shared" ref="K14:K28" si="0">SUM(H14:J14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="20">
+        <v>2</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="20">
+        <v>3</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="20">
+        <v>4</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="20">
+        <v>5</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="20">
+        <v>6</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="20">
+        <v>7</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="20">
+        <v>8</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="20">
+        <v>9</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="20">
+        <v>10</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="20">
+        <v>11</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="20">
+        <v>12</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="20">
+        <v>13</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="20">
+        <v>14</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="21">
+        <v>15</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="2">
+        <f>SUM(F14:F28)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" ref="G29:J29" si="1">SUM(G14:G28)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="22">
+        <f>SUM(K14:K28)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -3686,94 +4096,95 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7652DBE-D908-476C-B011-897C8E46E9AA}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="44.88671875" customWidth="1"/>
-    <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="11" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4" style="44" customWidth="1"/>
+    <col min="2" max="2" width="44.88671875" style="44" customWidth="1"/>
+    <col min="3" max="3" width="46" style="44" customWidth="1"/>
+    <col min="4" max="11" width="12.6640625" style="44" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="60" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="B3" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="44" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="46" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="34" t="str">
+      <c r="C6" s="64" t="str">
         <f>'Time Period 1'!C6</f>
         <v>Anmol Kumar</v>
       </c>
-      <c r="D6" s="34" t="str">
+      <c r="D6" s="64" t="str">
         <f>'Time Period 1'!D6</f>
         <v>2709898K</v>
       </c>
-      <c r="E6" s="34" t="str">
+      <c r="E6" s="64" t="str">
         <f>'Time Period 1'!E6</f>
         <v>Manager</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="35" t="str">
+      <c r="C7" s="65" t="str">
         <f>'Time Period 1'!C7</f>
         <v>Sarthak Ahuja</v>
       </c>
-      <c r="D7" s="35" t="str">
+      <c r="D7" s="65" t="str">
         <f>'Time Period 1'!D7</f>
         <v>2707209A</v>
       </c>
-      <c r="E7" s="35" t="str">
+      <c r="E7" s="65" t="str">
         <f>'Time Period 1'!E7</f>
         <v>Developer</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="35" t="str">
+      <c r="C8" s="65" t="str">
         <f>'Time Period 1'!C8</f>
         <v>Jia Wei Tan</v>
       </c>
-      <c r="D8" s="35" t="str">
+      <c r="D8" s="65" t="str">
         <f>'Time Period 1'!D8</f>
         <v>2705295T</v>
       </c>
-      <c r="E8" s="35" t="str">
+      <c r="E8" s="65" t="str">
         <f>'Time Period 1'!E8</f>
         <v>Developer</v>
       </c>
@@ -3782,365 +4193,365 @@
       <c r="B9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="35" t="str">
+      <c r="C9" s="65" t="str">
         <f>'Time Period 1'!C10</f>
         <v>Yenuo Liu</v>
       </c>
-      <c r="D9" s="35" t="str">
+      <c r="D9" s="65" t="str">
         <f>'Time Period 1'!D10</f>
         <v>2706420L</v>
       </c>
-      <c r="E9" s="35" t="str">
+      <c r="E9" s="65" t="str">
         <f>'Time Period 1'!E10</f>
         <v>Developer</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="36" t="str">
+      <c r="C10" s="66" t="str">
         <f>'Time Period 1'!C11</f>
         <v>Chaoyu Li</v>
       </c>
-      <c r="D10" s="36" t="str">
+      <c r="D10" s="66" t="str">
         <f>'Time Period 1'!D11</f>
         <v>2707728L</v>
       </c>
-      <c r="E10" s="36" t="str">
+      <c r="E10" s="66" t="str">
         <f>'Time Period 1'!E11</f>
         <v>Developer</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:11" s="45" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="46" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
+      <c r="A14" s="56">
         <v>1</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="23">
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="59">
         <f t="shared" ref="K14:K28" si="0">SUM(H14:J14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="20">
+      <c r="A15" s="57">
         <v>2</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
       <c r="K15" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="20">
+      <c r="A16" s="57">
         <v>3</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
       <c r="K16" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="20">
+      <c r="A17" s="57">
         <v>4</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
       <c r="K17" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="20">
+      <c r="A18" s="57">
         <v>5</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
       <c r="K18" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="20">
+      <c r="A19" s="57">
         <v>6</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
       <c r="K19" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="20">
+      <c r="A20" s="57">
         <v>7</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
       <c r="K20" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="20">
+      <c r="A21" s="57">
         <v>8</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
       <c r="K21" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="20">
+      <c r="A22" s="57">
         <v>9</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
       <c r="K22" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="20">
+      <c r="A23" s="57">
         <v>10</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
       <c r="K23" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="20">
+      <c r="A24" s="57">
         <v>11</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
       <c r="K24" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="20">
+      <c r="A25" s="57">
         <v>12</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
       <c r="K25" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="20">
+      <c r="A26" s="57">
         <v>13</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
       <c r="K26" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="20">
+      <c r="A27" s="57">
         <v>14</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
       <c r="K27" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="21">
+      <c r="A28" s="58">
         <v>15</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
       <c r="K28" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="2">
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="46">
         <f>SUM(F14:F28)</f>
         <v>0</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="46">
         <f t="shared" ref="G29:J29" si="1">SUM(G14:G28)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4154,7 +4565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -4314,28 +4725,28 @@
         <v>1</v>
       </c>
       <c r="E14" s="23">
-        <f>'Time Period 1'!F33</f>
+        <f>'Time Period 1'!F25</f>
+        <v>34</v>
+      </c>
+      <c r="F14" s="23">
+        <f>'Time Period 1'!G25</f>
+        <v>30</v>
+      </c>
+      <c r="G14" s="23">
+        <f>'Time Period 1'!H25</f>
+        <v>28</v>
+      </c>
+      <c r="H14" s="23">
+        <f>'Time Period 1'!J25</f>
         <v>32</v>
       </c>
-      <c r="F14" s="23">
-        <f>'Time Period 1'!G33</f>
-        <v>28</v>
-      </c>
-      <c r="G14" s="23">
-        <f>'Time Period 1'!H33</f>
-        <v>26</v>
-      </c>
-      <c r="H14" s="23">
-        <f>'Time Period 1'!J33</f>
+      <c r="I14" s="23">
+        <f>'Time Period 1'!K25</f>
         <v>30</v>
-      </c>
-      <c r="I14" s="23">
-        <f>'Time Period 1'!K33</f>
-        <v>28</v>
       </c>
       <c r="J14" s="23">
         <f t="shared" ref="J14:J18" si="0">SUM(G14:I14)</f>
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4355,19 +4766,19 @@
       </c>
       <c r="G15" s="24">
         <f>'Time Period 2'!H30</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15" s="24">
         <f>'Time Period 2'!I30</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" s="24">
         <f>'Time Period 2'!K30</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J15" s="24">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -4497,27 +4908,27 @@
       <c r="D21" s="14"/>
       <c r="E21" s="2">
         <f t="shared" ref="E21:J21" si="1">SUM(E14:E20)</f>
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I21" s="2">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J21" s="22">
         <f t="shared" si="1"/>
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
